--- a/shinykey.xlsx
+++ b/shinykey.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tmn07\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ShinyMasKeyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF77BD0C-070E-4CAF-B246-353E1223359A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1395" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="1395" windowWidth="15390" windowHeight="9533"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,13 +100,162 @@
   </si>
   <si>
     <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八连休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是旧电脑的大小？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftUp = (0, 173)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightDown = (2735, 1713)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏分辨率1136x640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出刀1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出刀2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出刀3</t>
+  </si>
+  <si>
+    <t>裁判1/练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁判2/工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁判3/试镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>选项3</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择左边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下角大按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四倍速（‘）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oem_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoFes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fes参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リハーサル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pymouse的大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,21 +574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -454,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -468,8 +619,11 @@
         <f>C3-102</f>
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -484,7 +638,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -499,7 +653,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -513,8 +667,17 @@
         <f t="shared" si="0"/>
         <v>668</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -528,8 +691,14 @@
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I7">
+        <v>1368</v>
+      </c>
+      <c r="J7">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -544,7 +713,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -559,7 +728,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -574,7 +743,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -589,7 +758,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -604,7 +773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -619,7 +788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -634,7 +803,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -649,7 +818,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -662,6 +831,719 @@
       <c r="D16">
         <f t="shared" si="0"/>
         <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>2735</v>
+      </c>
+      <c r="I19">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2645</v>
+      </c>
+      <c r="C20">
+        <v>257</v>
+      </c>
+      <c r="F20">
+        <v>2.4075700000000002</v>
+      </c>
+      <c r="I20">
+        <f>I19-I18</f>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>852</v>
+      </c>
+      <c r="C21">
+        <v>1516</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1581</v>
+      </c>
+      <c r="C22">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2185</v>
+      </c>
+      <c r="C23">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>2535</v>
+      </c>
+      <c r="I25">
+        <v>1555</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J38" si="1">H25/2735</f>
+        <v>0.92687385740402195</v>
+      </c>
+      <c r="K25">
+        <f>(I25-173)/1540</f>
+        <v>0.89740259740259742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <v>2330</v>
+      </c>
+      <c r="I26">
+        <v>1587</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.85191956124314439</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K38" si="2">(I26-173)/1540</f>
+        <v>0.91818181818181821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>2606</v>
+      </c>
+      <c r="I27">
+        <v>294</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.95283363802559418</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>7.857142857142857E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>490</v>
+      </c>
+      <c r="I28">
+        <v>700</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.17915904936014626</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0.34220779220779218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>1350</v>
+      </c>
+      <c r="I29">
+        <v>450</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.49360146252285192</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0.17987012987012987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30">
+        <v>2200</v>
+      </c>
+      <c r="I30">
+        <v>700</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.80438756855575866</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.34220779220779218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>870</v>
+      </c>
+      <c r="I31">
+        <v>1570</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.31809872029250458</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>1370</v>
+      </c>
+      <c r="I32">
+        <v>1570</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>1850</v>
+      </c>
+      <c r="I33">
+        <v>1570</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.67641681901279704</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>200</v>
+      </c>
+      <c r="I34">
+        <v>580</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0.26428571428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35">
+        <v>930</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0.49155844155844158</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <v>1290</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.72532467532467537</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>780</v>
+      </c>
+      <c r="I37">
+        <v>925</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0.28519195612431442</v>
+      </c>
+      <c r="K37">
+        <f>(I37-173)/1540</f>
+        <v>0.48831168831168831</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>2490</v>
+      </c>
+      <c r="I38">
+        <v>925</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.91042047531992687</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0.48831168831168831</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>2606</v>
+      </c>
+      <c r="I42">
+        <v>294</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42:J45" si="3">H42/2735</f>
+        <v>0.95283363802559418</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K45" si="4">(I42-173)/1540</f>
+        <v>7.857142857142857E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43">
+        <v>852</v>
+      </c>
+      <c r="I43">
+        <v>1516</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0.31151736745886655</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>0.87207792207792212</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>1581</v>
+      </c>
+      <c r="I44">
+        <v>1100</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>0.57806215722120657</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.6019480519480519</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45">
+        <v>2200</v>
+      </c>
+      <c r="I45">
+        <v>700</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>0.80438756855575866</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>0.34220779220779218</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>2535</v>
+      </c>
+      <c r="I49">
+        <v>1555</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J58" si="5">H49/2735</f>
+        <v>0.92687385740402195</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:K58" si="6">(I49-173)/1540</f>
+        <v>0.89740259740259742</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50">
+        <v>2114</v>
+      </c>
+      <c r="I50">
+        <v>1127</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.77294332723948811</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="6"/>
+        <v>0.61948051948051952</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51">
+        <v>739</v>
+      </c>
+      <c r="I51">
+        <v>966</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0.27020109689213895</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>0.51493506493506491</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>1370</v>
+      </c>
+      <c r="I52">
+        <v>1570</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="6"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+      <c r="I53">
+        <v>580</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="6"/>
+        <v>0.26428571428571429</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>1370</v>
+      </c>
+      <c r="I54">
+        <v>1570</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
+      </c>
+      <c r="I55">
+        <v>930</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="6"/>
+        <v>0.49155844155844158</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>1370</v>
+      </c>
+      <c r="I56">
+        <v>1570</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="6"/>
+        <v>0.90714285714285714</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>200</v>
+      </c>
+      <c r="I57">
+        <v>1290</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>7.3126142595978064E-2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>0.72532467532467537</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.4">
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>2535</v>
+      </c>
+      <c r="I58">
+        <v>1555</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>0.92687385740402195</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="6"/>
+        <v>0.89740259740259742</v>
       </c>
     </row>
   </sheetData>
